--- a/Testdata/TC_74.xlsx
+++ b/Testdata/TC_74.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>+RkAAB+LCAAAAAAAAAOlWUtz48YR/isoneIDCYCUVlrVLFwiKSmskKJKhKJdX1JDYCQiAjA0MJDE215SjtfxKbYrfntPTqWyjg9JVcqbOP/FFWo3p/yF9DwweJBam5stlYT5+jE9PT3dPbPozZsoNK5IkgY0frBhN60Ng8Qe9YP44sFGxs4b9r2NNx20f+OR8BgnOCIMmA2QitPdmzR4sDFlbLZrmtfX183rdpMmF2bLsmzz4XAw9qYkwo0gThmOPbKhpfwfl9pwUNePhoRhHzMsJR9s9Mf9ZpcEXg+wIY7xBUmanSwNYpKm+zELWEBSLpkQzEi3N/ylXJjTat5r2shcwgvOThaEvuSrcEpc8cG0xA0i4rQse6dh7TTatmu3du327uZmc6vVfisX1IxogFM2JslV4AlgzHA0E+LWTtu2W3Z7cxOZK5lAV+EAB41C/4RcBSnxuyQM07U8YqoN3PMYrHo9Z1rILMkqRa9vwmGCZ1M3YCFZz4xOzzWiWNlSKHHQAU2IB/57LZOOyPUoUW51ZwOgutMgYfMenq+t6zQlyWjGnbSeqIN6NGZ7IUnY6Qz2mvgQCkBwWJIRZN5BLIR6QerBdxBnxHfOcZiWhSpEdEaTy3SGPXIE59jkOq7jkGIfAo4FKQu8tFCwREHHCZ2BSpi9Q0P/ANQqE1cQtOp+DD7m83YovaxrrxKR2FaxwbCpEWY5+xKOxlN6PYrD+TibpF4STIjf6+TcK2mIn0gl3c1SRiOwooCQxErIcGjO4R8cwjoF9YgXRDg8DsGRqdMGRRUA7WWMngesS8MsirVHayg6g0W55EYvUo/RCDY45n6ncT+uaVlJq0qc0Os8dpZx4YcSvJd6elOWKXXuHmAqKpcJYlP4Kg+CEGpEeTtKaDUwxlNC2MqokBTE0+EBrzpOZ87nRGaBIAhOiHBAHfv+/e2GZcOPa1m74gdm1mS0H/viA2rMvYbd4nm74MuJ6CiLRhM4xVdiTY4NtBqEYBVhJ8TxJaBnAZse7eXWr6AgueY7+ZdpCM7rLMRzAWu/lDHUj70w84lMA/34XAQlt01x30lHS9AATraDcDx35zOeDsw7OHrkHGchVCgGieSiyBE1GO2ll3WeMoROkzDfY4fX/xQaAM+Pmh6kSF7kmh6NOGBC3T0bI7PMz/O8R/bjiwGOLzLIpNqPdVxHGE8CboLjlC9HJ85asK1mQvm+yITuyM0aZSKc5GZRoCKzxodcEs1ogsMhOCY4yGJRNFVVAA8PMZuqERzekHi5k81CVEtVLcsN/zE2cQzlMniWV+e1BgomvhbZapSOagEivswh9aHa4zCYJJUoW0mDHStqYB5vfHVr1sN8E6DfhATzCzLnTUgxUDgPWsfOCWKEumCSMz7Z3GltWfd2IHnzMRJLPqTQ5cYRsBo9MmG7Ro9GhFe2XaPT2TUq5BlNAwa7K32lzt9raynLo4OEvJ1Bhz0Xpg0hfitAlQ4Z9iKIcbjEpwkFvzOEujsN5yVOufIB9YDx9oN/Lb77bPH4u8WTp//9xyeLT/+5+M3X8NHpwC9FfPaH2z9/L1cthZCLJyERhrmdnR2rDb1qASGVNqD8+5nHBPbokWgH9BiptlYMuvv97uGgI/KMBnNx3mlk/IwM8JxmxXAsFyMmEjtt5gEiWRw3z1tqXKH2CO8B5OHkHewVqXKX6XcJSl+8eP71i+fP7pRWDitqDpSaVsPa/AklyW7zkmStLEn8ZiAbv/zescXvHXa7xFzjQSdwfYI+T/up7ztt27pvbW9bts7xvo7rVUx1ktLk4guzJiehLs1ilsx1CJTHOVHEvwuHRZPliSgNVKj+7b2Xf/mwwqW8q5CqFjCOZomMJjMfCNVHJ64xHp2edPcNd3/M46Sglfik8lcwq9n1uSoHzfKpq4TUKlSqe6VgfcbDhGazpYxRoCs4V+aOZWpNUvhm2bSCtoJf7dpnv10loFaiYuY0Dpi+ypUxVKFIqERXR/Dj7//993cWz75cPPnq9r13F08/WLz/tKJHzabvORC6cEDKQx3JkMVUZakh6GwsfHpp/apUSRTIe8RjGsQsdWx7S/SHaohA1ubqxF/Uj6C6Cc3CbYDXEPRznO7fMHVYnSNkVgEwdIahsNKik9aAzMuFe//z+Re3n/719qNvX77zp8WTPy5+99GL51++/OapPEm3H357+/43KnPXk7uwhffnsuEzxIXPM/gJM3iZNn54/HsjpsyA9sLIRJb54fHHJWXcUNGIFJqhfdOGVE1YYi0LczmjZIq2oSKnRWSt7/Ky1NYcqjDRWeAVk7zV4KqgBzUE4Wd9t5GlxKDQOb0BK6kyF8I/VU6JyDJ5vG217JaiSmv4EiY4Lbn+MKQTHBo5QVynaiwVqVcLFLxivsPBqLM3KFikEaPEh9uXxe+E/APl7SMvE/00H+lLRIEAFXo8Lwv5DXiJbZmkNZfSmalukud7Pn9YdCxL3NWqNa/CARfyJJHdTqxeJ8fZDBrf/M3hbrp4iCn1ukeyLS13v8W436vSYVyiQnGrkjkg6CJDKZLMVv2U31pl53rEXVMMgVZ5vAF3qAdI2T1dBbAlJk88+0lCk5XZp6DkbENomiGjmIXHNY/YU9lg+8Ve5UCe8fSHvOWpFdIeCQlb73XOLKSH0AG/rizs/bqi/XQU+sqZ690ytFsKBeUnSh4o/+8LpQy2vSSBZok/Z6z9pJhfUk/gbrumNXIpQpDf9mB29eZ3ECQpe8gzgfqSyCONPJJd50Nnc0f2lg8lIDjkh1qk0m5WzMyPLpMPxTQcBFGw5g3Qys93VQn4cjaTbVl/vUjhpeWI3EDTWNIASXHyaygb/BqznjYZsJBLtTx/l0mDiylb17DtCSY+mVgNb0JajU0fmvv7hMCNwIbf2GvBNWKLP+oo5ZA5AnK95iRmvmHFf+A4/wNQTDQt+RkAAA==</t>
+          <t>0BsAAB+LCAAAAAAAAAOlWUuPI0kR/iulPsHBrof7rZxatR/dWNjtVruantkLKlel7aTrYaqyutu3kVbLwix7YnfFwsIyXECIWfYAEtpBy39Z4Z7hxF8g8lFPu2eoZmTNVMYXERkZGRkRmYPeufU95RpHMQmDR1t6U9tScOCELglmj7YSOm3ou1vvmKh362DvzI5sH1NgVkAqiA9vY/Joa07p4lBVb25umjetZhjNVEPTdPXxcDB25ti3GySIqR04eCuTct8utWWijusPMbVdm9pC8tFWf9xvdjBxukAb2oE9w1GzncQkwHHcCyihBMdMMsI2xZ3u8AdiYabR3G3qSF2j55zthHiu4CtxCrrkg2mxRXxsGpqhNbT9hrFtaXuHrYPDHa25t7v7biqYMaKBHdMxjq6JwwljavsLLq7tG9vaXutgR0PqRibQlTvARCPPPcfXJMZuB3teXMsjqtzAI4fCqus5E8wryEpFDzfhJLIXc4tQD9cVPw4j7ICjHjT3Kb4ZRdJ/1mIAqDUnEV127WVtXRcxjkYL5o16oibqhgE98nBELxawqdiFPQfApFGCkXoPmAt1SezANwkS7JpT24uLQiUQXYbRVbywHXwKB1ZlOm4CL7RdiCxKYkqcOFewhqCzKFyASpi9HXruMaiVJm4AMtX9AHzM5m2H4VVVexlEPAh4OMCm+jZN2dfoaDwPb0aBtxwnk9iJyAS73XbKvRFD7OhJ6U4S09AHK3ISErQCZThUl/AHTlsVQV3sEN/2zjxwZGy2QFGJgI4SGk4J7YRe4geZRytUdAmLsvBttshsjEawwQHzexj0g4qWjVhZ4jy8SWNnnc79UCAfxU62KetIlbsLNBmV6wDfFLbKY+JBMShuR4FaDozxHGO6MSoEgljeO2blxWwv2ZxIzSkIghMiHKiQObXdBvwMzdK0Q/6DmTMY9QI359ONRksv8KUgOk380QRO8TVfk6kDViEhWIXX9uzgCqiXhM5Pj1LrNyBIrPle/nUMwXldePaSkzO/FGmoHzhe4mKRBvrBlAcls01y34ujNdIATjbLAnhqJx5UGgp5YpangAoZHcVXVZ4iCV1EXrqFJqvjMRRyx/WbDmRAVqyaTugzggr183KM1CI/S+MO7gWzgR3MEkiUmZuq9CyA2Bm3IjuI2XqyvFiJpc1MKHW7yNem2ItRwqNF7EUIKFIrfMjC/iKMbG8IjiHHScCLn0z64MmhTedyBGfTw07By6loJlW2LDX8bWz8lIllsCQuj2OFyJnYWkTLUDiJORGxZQ5DF6q27ZFJVAqijRjsWF7i0nBiq6tZ7tJNgL4R8sf38ZI1E/lA0q3lApt6CvAR6oBJ5vh8e9/Y0Xb3ITezMeJLPgmhWw18YFW6eEIPlW7oY1a4DpV2+1ApwYswJhR2V/hKHq8HaynKo+MI/ziBTnnJTRtC/JYIZRwS6IwEtrfGlwE5vzmEsjr3lgVOsfJB6ADj3cf/XH39+erp16tnz//zj1+tfv/e6ifvw0e7DX9J8MUv7/78jVi1EEKWPfEwN8xq7+9rrW2Iv4yEmM9VXvbdxKGc9uQJr/bZGMn2lA86vX7nZNCGQCsQU3HWSCTsjAzsZZjkw7FYDJ+I77SaBohgMS2uLx+X0C5mJV4cTtaJXuMydxG/T1D44tXLP7x6+eJeaemwUsUxGtp2Q9PfVnH0Fqs42saKwzp80dfJ+4N+0NDgZxSYKzzoHK5B0MZlfuq7ZkvXDrS9PU1P7QdaGtebmKqQ1GTZM7UiJ0idMAlotMxCoDhOQR7/FhyWDBYnojCQofq3D1//5ZMSl/SupJS1gHFhEoloUtMBV316binj0cV5p6dYvTGLkxwr8Anlb2CWs2fnqhg066euFFKbqELdGwWrM55EYbJYyxg5dQPnxtyxjlYkuW/WTcuxDfxy1z7/6SYBuRIZMxcBoWa7ayl+kAUZp6ESIkgFXB7Bz775198/WL34YvXsd3cf/mz1/OPVR89LeuRs2TUGQhcOSHGYRTJkMVlZKhR0OeY+vdJ+WKgkkshawLOQBDQ2dX2Ht39yiEBWZ+r4v6jvQ3XjmrnbgF6hoO/Zce+WysNqniK1TABDFzYU1jBvlDOCyMu5e//9m9/e/fqvd59+9fqDP62e/XH1809fvfzi9ZfPxUm6++Sru4++lJm7mty5Laz9Fh2fwu9zjsJOmMLKtPLt018oQUgVaC+UhGeZb59+VlDGDOWNSK4Z2rfMkLIJa6xFYSanFEzJbCjJZSKi1ndYWWplHLIwhQvi5JO822CqoAdVOPCdvtVIYqyE0Dl9F1ZSZs6F/1c5KSLK5NmeZuiGRIU1bAkTOy64/sQLJ7anpAC/LVVYSlJvFsh5+Xwng1H7aJCzCCNGkQuXK41d+dgH6sdpA5ndC3IKoNDXOYnHLrVrbOsQSr8KKUyVl8PpkcseBU1N0/QG/xVKV4kD7thRJDqcQL4sjpMFNLvpM8L9OH9bKfS3p6IVLXa8+bjfLeMwLqBQ0MowI3CcZyUJiQzVj9lFVHSrp8w1+RCw0nsMuEM+HoqO6ZrANqgs2fSiKIw2ZpwcSdmG0ChDFlFzj2c8KptSNNVuvlcpIc1y2Qdry7NkGHaxh2ntl7VUeghd70NlYe/rivbjkedKZ9a7WWRuyRUUnxdZoNQ15iiKoBVibxG13wMHJLjq11u9Odk23KmxM9lv6dOp7cK/Gt6euLrRgtZNm0IzyJWymyZTwW4i7JpWbxJoAMvi+Z36HG7ZNbUJB3NBdu8ET/EDKRN7NkbHJIrpY5ai5JegPMkoT0Q7/NjcFT3vYzHmDOJDPjnLudSS0Wl6oeIhOvQGxCc1b6ZamoPKSiAKFgvRLtbdTyh5p/gWmtmCBkjWkx9BOWPXq3raxKGCHJ/Jp7rGyaS2OjUVPgOcxdXDpHsu9GUPl+avusT7PwzgjddDVfSDmMzmtO6+GgcHLbyLjYYxdZzGNgwaUIwnDdeeHuiaNm25OwZ7ipPKoTgQfFNzElZSSJzYXn05tfL/cuZ/ARWcsovQGwAA</t>
         </r>
       </text>
     </comment>
@@ -39,9 +39,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +59,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF3A56"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,7 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,135 +421,42 @@
       <c r="G1" s="3">
         <v>-149</v>
       </c>
-      <c r="H1" s="3">
-        <v>-153</v>
-      </c>
-      <c r="I1" s="3">
-        <v>-151</v>
-      </c>
-      <c r="J1" s="3">
-        <v>-158</v>
-      </c>
-      <c r="K1" s="3">
-        <v>-154</v>
-      </c>
-      <c r="L1" s="3">
-        <v>-144</v>
-      </c>
-      <c r="M1" s="3">
-        <v>-139</v>
-      </c>
-      <c r="N1" s="3">
-        <v>-131</v>
-      </c>
-      <c r="O1" s="3">
-        <v>-143</v>
-      </c>
-      <c r="P1" s="3">
-        <v>-137</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>-145</v>
-      </c>
-      <c r="R1" s="3">
-        <v>-134</v>
-      </c>
-      <c r="S1" s="3">
-        <v>-133</v>
-      </c>
-      <c r="T1" s="3">
-        <v>-133</v>
-      </c>
-      <c r="U1" s="3">
-        <v>-142</v>
-      </c>
-      <c r="V1" s="3">
-        <v>-144</v>
-      </c>
-      <c r="W1" s="3">
-        <v>-143</v>
-      </c>
-      <c r="X1" s="3">
-        <v>-125</v>
-      </c>
-      <c r="Y1" s="3">
-        <v>-5</v>
-      </c>
-      <c r="Z1" s="3">
-        <v>-16</v>
-      </c>
-      <c r="AA1" s="3">
-        <v>-14</v>
-      </c>
-      <c r="AB1" s="3">
-        <v>-5</v>
-      </c>
-      <c r="AC1" s="3">
-        <v>-12</v>
-      </c>
-      <c r="AD1" s="3">
-        <v>-14</v>
-      </c>
-      <c r="AE1" s="3">
-        <v>-5</v>
-      </c>
-      <c r="AF1" s="3">
-        <v>-9</v>
-      </c>
-      <c r="AG1" s="3">
-        <v>-9</v>
-      </c>
-      <c r="AH1" s="3">
-        <v>-9</v>
-      </c>
-      <c r="AI1" s="3">
-        <v>-13</v>
-      </c>
-      <c r="AJ1" s="3">
-        <v>-5</v>
-      </c>
-      <c r="AK1" s="3">
-        <v>-10</v>
-      </c>
-      <c r="AL1" s="3">
-        <v>-9</v>
-      </c>
-      <c r="AM1" s="3">
-        <v>-8</v>
-      </c>
-      <c r="AN1" s="3">
-        <v>-5</v>
-      </c>
-      <c r="AO1" s="3">
-        <v>-10</v>
-      </c>
-      <c r="AP1" s="3">
-        <v>-5</v>
-      </c>
-      <c r="AQ1" s="3">
-        <v>-12</v>
-      </c>
-      <c r="AR1" s="3">
-        <v>-14</v>
-      </c>
-      <c r="AS1" s="3">
-        <v>-5</v>
-      </c>
-      <c r="AT1" s="3">
-        <v>-9</v>
-      </c>
-      <c r="AU1" s="3">
-        <v>-13</v>
-      </c>
-      <c r="AV1" s="3">
-        <v>-10</v>
-      </c>
-      <c r="AW1" s="3">
-        <v>-8</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>1</EndRow>
+          <EndCol>7</EndCol>
+          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
+          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
+          <SeriesId>310907701</SeriesId>
+          <Code>SR4825068</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{168B8ABE-7F4C-4B5C-8146-7F4AB08EE00B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_74.xlsx
+++ b/Testdata/TC_74.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0BsAAB+LCAAAAAAAAAOlWUuPI0kR/iulPsHBrof7rZxatR/dWNjtVruantkLKlel7aTrYaqyutu3kVbLwix7YnfFwsIyXECIWfYAEtpBy39Z4Z7hxF8g8lFPu2eoZmTNVMYXERkZGRkRmYPeufU95RpHMQmDR1t6U9tScOCELglmj7YSOm3ou1vvmKh362DvzI5sH1NgVkAqiA9vY/Joa07p4lBVb25umjetZhjNVEPTdPXxcDB25ti3GySIqR04eCuTct8utWWijusPMbVdm9pC8tFWf9xvdjBxukAb2oE9w1GzncQkwHHcCyihBMdMMsI2xZ3u8AdiYabR3G3qSF2j55zthHiu4CtxCrrkg2mxRXxsGpqhNbT9hrFtaXuHrYPDHa25t7v7biqYMaKBHdMxjq6JwwljavsLLq7tG9vaXutgR0PqRibQlTvARCPPPcfXJMZuB3teXMsjqtzAI4fCqus5E8wryEpFDzfhJLIXc4tQD9cVPw4j7ICjHjT3Kb4ZRdJ/1mIAqDUnEV127WVtXRcxjkYL5o16oibqhgE98nBELxawqdiFPQfApFGCkXoPmAt1SezANwkS7JpT24uLQiUQXYbRVbywHXwKB1ZlOm4CL7RdiCxKYkqcOFewhqCzKFyASpi9HXruMaiVJm4AMtX9AHzM5m2H4VVVexlEPAh4OMCm+jZN2dfoaDwPb0aBtxwnk9iJyAS73XbKvRFD7OhJ6U4S09AHK3ISErQCZThUl/AHTlsVQV3sEN/2zjxwZGy2QFGJgI4SGk4J7YRe4geZRytUdAmLsvBttshsjEawwQHzexj0g4qWjVhZ4jy8SWNnnc79UCAfxU62KetIlbsLNBmV6wDfFLbKY+JBMShuR4FaDozxHGO6MSoEgljeO2blxWwv2ZxIzSkIghMiHKiQObXdBvwMzdK0Q/6DmTMY9QI359ONRksv8KUgOk380QRO8TVfk6kDViEhWIXX9uzgCqiXhM5Pj1LrNyBIrPle/nUMwXldePaSkzO/FGmoHzhe4mKRBvrBlAcls01y34ujNdIATjbLAnhqJx5UGgp5YpangAoZHcVXVZ4iCV1EXrqFJqvjMRRyx/WbDmRAVqyaTugzggr183KM1CI/S+MO7gWzgR3MEkiUmZuq9CyA2Bm3IjuI2XqyvFiJpc1MKHW7yNem2ItRwqNF7EUIKFIrfMjC/iKMbG8IjiHHScCLn0z64MmhTedyBGfTw07By6loJlW2LDX8bWz8lIllsCQuj2OFyJnYWkTLUDiJORGxZQ5DF6q27ZFJVAqijRjsWF7i0nBiq6tZ7tJNgL4R8sf38ZI1E/lA0q3lApt6CvAR6oBJ5vh8e9/Y0Xb3ITezMeJLPgmhWw18YFW6eEIPlW7oY1a4DpV2+1ApwYswJhR2V/hKHq8HaynKo+MI/ziBTnnJTRtC/JYIZRwS6IwEtrfGlwE5vzmEsjr3lgVOsfJB6ADj3cf/XH39+erp16tnz//zj1+tfv/e6ifvw0e7DX9J8MUv7/78jVi1EEKWPfEwN8xq7+9rrW2Iv4yEmM9VXvbdxKGc9uQJr/bZGMn2lA86vX7nZNCGQCsQU3HWSCTsjAzsZZjkw7FYDJ+I77SaBohgMS2uLx+X0C5mJV4cTtaJXuMydxG/T1D44tXLP7x6+eJeaemwUsUxGtp2Q9PfVnH0Fqs42saKwzp80dfJ+4N+0NDgZxSYKzzoHK5B0MZlfuq7ZkvXDrS9PU1P7QdaGtebmKqQ1GTZM7UiJ0idMAlotMxCoDhOQR7/FhyWDBYnojCQofq3D1//5ZMSl/SupJS1gHFhEoloUtMBV316binj0cV5p6dYvTGLkxwr8Anlb2CWs2fnqhg066euFFKbqELdGwWrM55EYbJYyxg5dQPnxtyxjlYkuW/WTcuxDfxy1z7/6SYBuRIZMxcBoWa7ayl+kAUZp6ESIkgFXB7Bz775198/WL34YvXsd3cf/mz1/OPVR89LeuRs2TUGQhcOSHGYRTJkMVlZKhR0OeY+vdJ+WKgkkshawLOQBDQ2dX2Ht39yiEBWZ+r4v6jvQ3XjmrnbgF6hoO/Zce+WysNqniK1TABDFzYU1jBvlDOCyMu5e//9m9/e/fqvd59+9fqDP62e/XH1809fvfzi9ZfPxUm6++Sru4++lJm7mty5Laz9Fh2fwu9zjsJOmMLKtPLt018oQUgVaC+UhGeZb59+VlDGDOWNSK4Z2rfMkLIJa6xFYSanFEzJbCjJZSKi1ndYWWplHLIwhQvi5JO822CqoAdVOPCdvtVIYqyE0Dl9F1ZSZs6F/1c5KSLK5NmeZuiGRIU1bAkTOy64/sQLJ7anpAC/LVVYSlJvFsh5+Xwng1H7aJCzCCNGkQuXK41d+dgH6sdpA5ndC3IKoNDXOYnHLrVrbOsQSr8KKUyVl8PpkcseBU1N0/QG/xVKV4kD7thRJDqcQL4sjpMFNLvpM8L9OH9bKfS3p6IVLXa8+bjfLeMwLqBQ0MowI3CcZyUJiQzVj9lFVHSrp8w1+RCw0nsMuEM+HoqO6ZrANqgs2fSiKIw2ZpwcSdmG0ChDFlFzj2c8KptSNNVuvlcpIc1y2Qdry7NkGHaxh2ntl7VUeghd70NlYe/rivbjkedKZ9a7WWRuyRUUnxdZoNQ15iiKoBVibxG13wMHJLjq11u9Odk23KmxM9lv6dOp7cK/Gt6euLrRgtZNm0IzyJWymyZTwW4i7JpWbxJoAMvi+Z36HG7ZNbUJB3NBdu8ET/EDKRN7NkbHJIrpY5ai5JegPMkoT0Q7/NjcFT3vYzHmDOJDPjnLudSS0Wl6oeIhOvQGxCc1b6ZamoPKSiAKFgvRLtbdTyh5p/gWmtmCBkjWkx9BOWPXq3raxKGCHJ/Jp7rGyaS2OjUVPgOcxdXDpHsu9GUPl+avusT7PwzgjddDVfSDmMzmtO6+GgcHLbyLjYYxdZzGNgwaUIwnDdeeHuiaNm25OwZ7ipPKoTgQfFNzElZSSJzYXn05tfL/cuZ/ARWcsovQGwAA</t>
+          <t>+RkAAB+LCAAAAAAAAAOlWUtz48YR/isoneIDCYCUVlrVLFwiKSmskKJKhKJdX1JDYCQiAjA0MJDE215SjtfxKbYrfntPTqWyjg9JVcqbOP/FFWo3p/yF9DwweJBam5stlYT5+jE9PT3dPbPozZsoNK5IkgY0frBhN60Ng8Qe9YP44sFGxs4b9r2NNx20f+OR8BgnOCIMmA2QitPdmzR4sDFlbLZrmtfX183rdpMmF2bLsmzz4XAw9qYkwo0gThmOPbKhpfwfl9pwUNePhoRhHzMsJR9s9Mf9ZpcEXg+wIY7xBUmanSwNYpKm+zELWEBSLpkQzEi3N/ylXJjTat5r2shcwgvOThaEvuSrcEpc8cG0xA0i4rQse6dh7TTatmu3du327uZmc6vVfisX1IxogFM2JslV4AlgzHA0E+LWTtu2W3Z7cxOZK5lAV+EAB41C/4RcBSnxuyQM07U8YqoN3PMYrHo9Z1rILMkqRa9vwmGCZ1M3YCFZz4xOzzWiWNlSKHHQAU2IB/57LZOOyPUoUW51ZwOgutMgYfMenq+t6zQlyWjGnbSeqIN6NGZ7IUnY6Qz2mvgQCkBwWJIRZN5BLIR6QerBdxBnxHfOcZiWhSpEdEaTy3SGPXIE59jkOq7jkGIfAo4FKQu8tFCwREHHCZ2BSpi9Q0P/ANQqE1cQtOp+DD7m83YovaxrrxKR2FaxwbCpEWY5+xKOxlN6PYrD+TibpF4STIjf6+TcK2mIn0gl3c1SRiOwooCQxErIcGjO4R8cwjoF9YgXRDg8DsGRqdMGRRUA7WWMngesS8MsirVHayg6g0W55EYvUo/RCDY45n6ncT+uaVlJq0qc0Os8dpZx4YcSvJd6elOWKXXuHmAqKpcJYlP4Kg+CEGpEeTtKaDUwxlNC2MqokBTE0+EBrzpOZ87nRGaBIAhOiHBAHfv+/e2GZcOPa1m74gdm1mS0H/viA2rMvYbd4nm74MuJ6CiLRhM4xVdiTY4NtBqEYBVhJ8TxJaBnAZse7eXWr6AgueY7+ZdpCM7rLMRzAWu/lDHUj70w84lMA/34XAQlt01x30lHS9AATraDcDx35zOeDsw7OHrkHGchVCgGieSiyBE1GO2ll3WeMoROkzDfY4fX/xQaAM+Pmh6kSF7kmh6NOGBC3T0bI7PMz/O8R/bjiwGOLzLIpNqPdVxHGE8CboLjlC9HJ85asK1mQvm+yITuyM0aZSKc5GZRoCKzxodcEs1ogsMhOCY4yGJRNFVVAA8PMZuqERzekHi5k81CVEtVLcsN/zE2cQzlMniWV+e1BgomvhbZapSOagEivswh9aHa4zCYJJUoW0mDHStqYB5vfHVr1sN8E6DfhATzCzLnTUgxUDgPWsfOCWKEumCSMz7Z3GltWfd2IHnzMRJLPqTQ5cYRsBo9MmG7Ro9GhFe2XaPT2TUq5BlNAwa7K32lzt9raynLo4OEvJ1Bhz0Xpg0hfitAlQ4Z9iKIcbjEpwkFvzOEujsN5yVOufIB9YDx9oN/Lb77bPH4u8WTp//9xyeLT/+5+M3X8NHpwC9FfPaH2z9/L1cthZCLJyERhrmdnR2rDb1qASGVNqD8+5nHBPbokWgH9BiptlYMuvv97uGgI/KMBnNx3mlk/IwM8JxmxXAsFyMmEjtt5gEiWRw3z1tqXKH2CO8B5OHkHewVqXKX6XcJSl+8eP71i+fP7pRWDitqDpSaVsPa/AklyW7zkmStLEn8ZiAbv/zescXvHXa7xFzjQSdwfYI+T/up7ztt27pvbW9bts7xvo7rVUx1ktLk4guzJiehLs1ilsx1CJTHOVHEvwuHRZPliSgNVKj+7b2Xf/mwwqW8q5CqFjCOZomMJjMfCNVHJ64xHp2edPcNd3/M46Sglfik8lcwq9n1uSoHzfKpq4TUKlSqe6VgfcbDhGazpYxRoCs4V+aOZWpNUvhm2bSCtoJf7dpnv10loFaiYuY0Dpi+ypUxVKFIqERXR/Dj7//993cWz75cPPnq9r13F08/WLz/tKJHzabvORC6cEDKQx3JkMVUZakh6GwsfHpp/apUSRTIe8RjGsQsdWx7S/SHaohA1ubqxF/Uj6C6Cc3CbYDXEPRznO7fMHVYnSNkVgEwdIahsNKik9aAzMuFe//z+Re3n/719qNvX77zp8WTPy5+99GL51++/OapPEm3H357+/43KnPXk7uwhffnsuEzxIXPM/gJM3iZNn54/HsjpsyA9sLIRJb54fHHJWXcUNGIFJqhfdOGVE1YYi0LczmjZIq2oSKnRWSt7/Ky1NYcqjDRWeAVk7zV4KqgBzUE4Wd9t5GlxKDQOb0BK6kyF8I/VU6JyDJ5vG217JaiSmv4EiY4Lbn+MKQTHBo5QVynaiwVqVcLFLxivsPBqLM3KFikEaPEh9uXxe+E/APl7SMvE/00H+lLRIEAFXo8Lwv5DXiJbZmkNZfSmalukud7Pn9YdCxL3NWqNa/CARfyJJHdTqxeJ8fZDBrf/M3hbrp4iCn1ukeyLS13v8W436vSYVyiQnGrkjkg6CJDKZLMVv2U31pl53rEXVMMgVZ5vAF3qAdI2T1dBbAlJk88+0lCk5XZp6DkbENomiGjmIXHNY/YU9lg+8Ve5UCe8fSHvOWpFdIeCQlb73XOLKSH0AG/rizs/bqi/XQU+sqZ690ytFsKBeUnSh4o/+8LpQy2vSSBZok/Z6z9pJhfUk/gbrumNXIpQpDf9mB29eZ3ECQpe8gzgfqSyCONPJJd50Nnc0f2lg8lIDjkh1qk0m5WzMyPLpMPxTQcBFGw5g3Qys93VQn4cjaTbVl/vUjhpeWI3EDTWNIASXHyaygb/BqznjYZsJBLtTx/l0mDiylb17DtCSY+mVgNb0JajU0fmvv7hMCNwIbf2GvBNWKLP+oo5ZA5AnK95iRmvmHFf+A4/wNQTDQt+RkAAA==</t>
         </r>
       </text>
     </comment>
@@ -39,9 +39,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="###0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,14 +59,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF3A56"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,7 +88,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:AW1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,42 +413,135 @@
       <c r="G1" s="3">
         <v>-149</v>
       </c>
+      <c r="H1" s="3">
+        <v>-153</v>
+      </c>
+      <c r="I1" s="3">
+        <v>-151</v>
+      </c>
+      <c r="J1" s="3">
+        <v>-158</v>
+      </c>
+      <c r="K1" s="3">
+        <v>-154</v>
+      </c>
+      <c r="L1" s="3">
+        <v>-144</v>
+      </c>
+      <c r="M1" s="3">
+        <v>-139</v>
+      </c>
+      <c r="N1" s="3">
+        <v>-131</v>
+      </c>
+      <c r="O1" s="3">
+        <v>-143</v>
+      </c>
+      <c r="P1" s="3">
+        <v>-137</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>-145</v>
+      </c>
+      <c r="R1" s="3">
+        <v>-134</v>
+      </c>
+      <c r="S1" s="3">
+        <v>-133</v>
+      </c>
+      <c r="T1" s="3">
+        <v>-133</v>
+      </c>
+      <c r="U1" s="3">
+        <v>-142</v>
+      </c>
+      <c r="V1" s="3">
+        <v>-144</v>
+      </c>
+      <c r="W1" s="3">
+        <v>-143</v>
+      </c>
+      <c r="X1" s="3">
+        <v>-125</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>-5</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>-16</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>-14</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>-5</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>-12</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>-14</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>-5</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>-9</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>-9</v>
+      </c>
+      <c r="AH1" s="3">
+        <v>-9</v>
+      </c>
+      <c r="AI1" s="3">
+        <v>-13</v>
+      </c>
+      <c r="AJ1" s="3">
+        <v>-5</v>
+      </c>
+      <c r="AK1" s="3">
+        <v>-10</v>
+      </c>
+      <c r="AL1" s="3">
+        <v>-9</v>
+      </c>
+      <c r="AM1" s="3">
+        <v>-8</v>
+      </c>
+      <c r="AN1" s="3">
+        <v>-5</v>
+      </c>
+      <c r="AO1" s="3">
+        <v>-10</v>
+      </c>
+      <c r="AP1" s="3">
+        <v>-5</v>
+      </c>
+      <c r="AQ1" s="3">
+        <v>-12</v>
+      </c>
+      <c r="AR1" s="3">
+        <v>-14</v>
+      </c>
+      <c r="AS1" s="3">
+        <v>-5</v>
+      </c>
+      <c r="AT1" s="3">
+        <v>-9</v>
+      </c>
+      <c r="AU1" s="3">
+        <v>-13</v>
+      </c>
+      <c r="AV1" s="3">
+        <v>-10</v>
+      </c>
+      <c r="AW1" s="3">
+        <v>-8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>1</EndRow>
-          <EndCol>7</EndCol>
-          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
-          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
-          <SeriesId>310907701</SeriesId>
-          <Code>SR4825068</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{168B8ABE-7F4C-4B5C-8146-7F4AB08EE00B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>